--- a/字段及数据结构参考.xlsx
+++ b/字段及数据结构参考.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字段定义" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,14 +247,49 @@
   </si>
   <si>
     <t>0:人民币1:港币2:美元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vardict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vartype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchiname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varengname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productbasicinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openday</t>
+  </si>
+  <si>
+    <t>Exchange_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +311,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -312,10 +359,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -325,6 +379,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -373,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,264 +674,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -905,6 +974,12 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -915,14 +990,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
